--- a/data/extracted_data/processed/fitted_model_results_working.xlsx
+++ b/data/extracted_data/processed/fitted_model_results_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB82377-C2C3-2D4D-85DC-87D110B4395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D6EE2F-0A80-7049-8EBC-D1793E346E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16960" yWindow="500" windowWidth="24700" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19660" yWindow="860" windowWidth="24700" windowHeight="12620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5583,459 +5583,459 @@
         <v>17.050777488701502</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>3073.0638760974834</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>-8.4049740084703346E-3</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
         <v>0.79126414644819543</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="2">
         <v>0.75647483752289468</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="2">
         <v>3.0972397315090603E-3</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="2">
         <v>8</v>
       </c>
-      <c r="J109">
-        <v>1</v>
-      </c>
-      <c r="K109">
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2">
         <v>-1.2055464705903363</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="2">
         <v>8.411092941180673</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>12264.452474126036</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <v>-1.3048975642612971E-2</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
         <v>0.97469308255633691</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="2">
         <v>0.96203962383450536</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="2">
         <v>1.2734543014728537E-2</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="2">
         <v>4</v>
       </c>
-      <c r="J110">
-        <v>1</v>
-      </c>
-      <c r="K110">
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2">
         <v>4.6573356040021512</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="2">
         <v>-3.3146712080043024</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>4129.8391100073059</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <v>-7.5963183821040805E-3</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="2">
         <v>0.62120149312148654</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="2">
         <v>0.5670874207102703</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="2">
         <v>1.1628904143782337E-2</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="2">
         <v>9</v>
       </c>
-      <c r="J111">
-        <v>1</v>
-      </c>
-      <c r="K111">
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2">
         <v>-5.2732481539677103</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="2">
         <v>16.546496307935421</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>10882.967500934359</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <v>-1.4382277584209218E-2</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="2">
         <v>0.86196968434102816</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="2">
         <v>0.7929545265115423</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="2">
         <v>7.157677520377155E-2</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="2">
         <v>4</v>
       </c>
-      <c r="J112">
-        <v>1</v>
-      </c>
-      <c r="K112">
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
         <v>0.62959105054268605</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="2">
         <v>4.7408178989146279</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>87.897880854271193</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <v>-1.5507532587548745E-2</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="2">
         <v>0.3251781711410231</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="2">
         <v>0.19021380536922772</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="2">
         <v>0.18131514613983415</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="2">
         <v>7</v>
       </c>
-      <c r="J113">
-        <v>1</v>
-      </c>
-      <c r="K113">
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2">
         <v>-11.667600284352929</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="2">
         <v>29.335200568705858</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="2">
         <v>74.184073253672523</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <v>-6.3477259771609479E-3</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="2">
         <v>0.90344525380017193</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="2">
         <v>0.85516788070025784</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="2">
         <v>4.9502628199229612E-2</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="2">
         <v>4</v>
       </c>
-      <c r="J114">
-        <v>1</v>
-      </c>
-      <c r="K114">
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2">
         <v>4.7099085875437474</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="2">
         <v>-3.4198171750874948</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>59.403911622319605</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>-1.7619612763832036E-2</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="2">
         <v>0.25020901272683582</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="2">
         <v>0.1252438481813084</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="2">
         <v>0.20681091435690013</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="2">
         <v>8</v>
       </c>
-      <c r="J115">
-        <v>1</v>
-      </c>
-      <c r="K115">
+      <c r="J115" s="2">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
         <v>-16.876989677022141</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="2">
         <v>39.753979354044283</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="116" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>60.763734296664055</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>-7.7513771852136628E-4</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="2">
         <v>9.128766067122894E-2</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="2">
         <v>-0.36306850899315668</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="2">
         <v>0.69786152070411667</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="2">
         <v>4</v>
       </c>
-      <c r="J116">
-        <v>1</v>
-      </c>
-      <c r="K116">
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2">
         <v>4.0529167680282292</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="2">
         <v>-2.1058335360564584</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>994.47790852018477</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
         <v>-1.5614863216059725E-3</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="2">
         <v>0.71570098823369099</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="2">
         <v>0.66831781960597281</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="2">
         <v>8.1098946859121564E-3</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="2">
         <v>8</v>
       </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="K117">
+      <c r="J117" s="2">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2">
         <v>10.622632481839043</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="2">
         <v>-15.245264963678085</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="118" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>2057.0907670618576</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>-8.7694876397291441E-3</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="2">
         <v>0.72998748694409843</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="2">
         <v>0.5949812304161477</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="2">
         <v>0.14560694821171533</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="2">
         <v>4</v>
       </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="K118">
+      <c r="J118" s="2">
+        <v>1</v>
+      </c>
+      <c r="K118" s="2">
         <v>0.93408907853128342</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="2">
         <v>4.1318218429374332</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="119" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>1281.6440342663877</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <v>-1.622783926787646E-3</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="2">
         <v>0.64298431824758906</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="2">
         <v>0.59198207799724467</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="2">
         <v>9.3358439600894575E-3</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="2">
         <v>9</v>
       </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="K119">
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2">
         <v>9.0400398637313479</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="2">
         <v>-12.080079727462696</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="120" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="2">
         <v>1959.41651145008</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="2">
         <v>-5.5462672682754649E-3</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="2">
         <v>0.8805457505926374</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="2">
         <v>0.82081862588895604</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="2">
         <v>6.162600707786163E-2</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="2">
         <v>4</v>
       </c>
-      <c r="J120">
-        <v>1</v>
-      </c>
-      <c r="K120">
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2">
         <v>4.7728007571197413</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="2">
         <v>-3.5456015142394826</v>
       </c>
     </row>
